--- a/doc/资源货币/资源货币文档.xlsx
+++ b/doc/资源货币/资源货币文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t xml:space="preserve">命名 </t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>essence</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -118,8 +121,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -136,15 +139,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,8 +163,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,23 +215,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,9 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,15 +247,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,37 +270,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,19 +292,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,157 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +483,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,32 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,6 +572,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,141 +603,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1086,43 +1086,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="G8:I21"/>
+  <dimension ref="F8:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="9" style="1"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="50.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="8:9">
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="7:9">
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="7:9">
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1130,10 +1132,10 @@
       </c>
     </row>
     <row r="11" spans="7:9">
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1141,10 +1143,10 @@
       </c>
     </row>
     <row r="12" spans="7:9">
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1152,78 +1154,88 @@
       </c>
     </row>
     <row r="14" spans="7:9">
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="7:9">
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="7:9">
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="7:9">
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="7:9">
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="7:9">
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="7:9">
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="7:9">
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="1">
+        <v>3235</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/资源货币/资源货币文档.xlsx
+++ b/doc/资源货币/资源货币文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t xml:space="preserve">命名 </t>
   </si>
@@ -51,15 +51,6 @@
     <t>购买神器</t>
   </si>
   <si>
-    <t>钥匙</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>开宝箱</t>
-  </si>
-  <si>
     <t>木材</t>
   </si>
   <si>
@@ -111,7 +102,40 @@
     <t>essence</t>
   </si>
   <si>
-    <t>id</t>
+    <t>铁宝箱</t>
+  </si>
+  <si>
+    <t>iron_chest</t>
+  </si>
+  <si>
+    <t>银宝箱</t>
+  </si>
+  <si>
+    <t>silver_chest</t>
+  </si>
+  <si>
+    <t>金宝箱</t>
+  </si>
+  <si>
+    <t>golden_chest</t>
+  </si>
+  <si>
+    <t>铁钥匙</t>
+  </si>
+  <si>
+    <t>iron_key</t>
+  </si>
+  <si>
+    <t>银钥匙</t>
+  </si>
+  <si>
+    <t>silver_key</t>
+  </si>
+  <si>
+    <t>金钥匙</t>
+  </si>
+  <si>
+    <t>golden_key</t>
   </si>
 </sst>
 </file>
@@ -121,8 +145,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,17 +163,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,37 +185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +224,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -224,15 +241,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,37 +295,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,19 +316,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,157 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,21 +507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,6 +534,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -540,11 +558,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,15 +599,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -591,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,137 +627,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +766,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1086,17 +1113,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="F8:I34"/>
+  <dimension ref="G8:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
     <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
+    <col min="8" max="8" width="25.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="50.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1142,100 +1169,130 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="7:9">
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="14" spans="7:9">
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="7:9">
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="7:9">
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="7:9">
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="7:9">
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="7:9">
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="7:9">
       <c r="G20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="7:9">
       <c r="G21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="23" spans="7:8">
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="1" t="s">
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="1">
-        <v>3235</v>
-      </c>
+    <row r="25" spans="7:8">
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8">
+      <c r="G26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8">
+      <c r="G27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8">
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/资源货币/资源货币文档.xlsx
+++ b/doc/资源货币/资源货币文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -163,6 +163,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -171,9 +194,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,29 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -217,16 +277,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,21 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,52 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +316,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,175 +388,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,23 +543,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,30 +599,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,8 +1115,8 @@
   <sheetPr/>
   <dimension ref="G8:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/doc/资源货币/资源货币文档.xlsx
+++ b/doc/资源货币/资源货币文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t xml:space="preserve">命名 </t>
   </si>
@@ -27,7 +27,7 @@
     <t>钻石</t>
   </si>
   <si>
-    <t>diamond</t>
+    <t>gem</t>
   </si>
   <si>
     <t>商城购买、其他消费</t>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>golden_key</t>
+  </si>
+  <si>
+    <t>751弄 6.502</t>
   </si>
 </sst>
 </file>
@@ -144,8 +147,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -163,52 +166,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,31 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,14 +264,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -284,14 +279,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -316,61 +319,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,121 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +510,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,26 +543,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,23 +594,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="G8:I34"/>
+  <dimension ref="E8:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1289,6 +1292,11 @@
       </c>
       <c r="H28" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="9:9">

--- a/doc/资源货币/资源货币文档.xlsx
+++ b/doc/资源货币/资源货币文档.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
-  <si>
-    <t xml:space="preserve">命名 </t>
-  </si>
-  <si>
-    <t>用途</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>钻石</t>
   </si>
@@ -33,6 +27,12 @@
     <t>商城购买、其他消费</t>
   </si>
   <si>
+    <t>充值、关卡奖励</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
     <t>金币</t>
   </si>
   <si>
@@ -42,13 +42,19 @@
     <t>英雄升级、技能升级等</t>
   </si>
   <si>
+    <t>怪物掉落、关卡奖励、摇钱树点金</t>
+  </si>
+  <si>
     <t>宝物</t>
   </si>
   <si>
     <t>relic</t>
   </si>
   <si>
-    <t>购买神器</t>
+    <t>购买神器、神器升级</t>
+  </si>
+  <si>
+    <t>关卡奖励、</t>
   </si>
   <si>
     <t>木材</t>
@@ -60,6 +66,9 @@
     <t>英雄装备升级</t>
   </si>
   <si>
+    <t>关卡奖励、商城购买、宝箱掉落</t>
+  </si>
+  <si>
     <t>皮革</t>
   </si>
   <si>
@@ -108,6 +117,12 @@
     <t>iron_chest</t>
   </si>
   <si>
+    <t>开启宝箱获得资源</t>
+  </si>
+  <si>
+    <t>商城购买、关卡奖励</t>
+  </si>
+  <si>
     <t>银宝箱</t>
   </si>
   <si>
@@ -126,6 +141,9 @@
     <t>iron_key</t>
   </si>
   <si>
+    <t>开启宝箱</t>
+  </si>
+  <si>
     <t>银钥匙</t>
   </si>
   <si>
@@ -136,9 +154,6 @@
   </si>
   <si>
     <t>golden_key</t>
-  </si>
-  <si>
-    <t>751弄 6.502</t>
   </si>
 </sst>
 </file>
@@ -148,8 +163,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -167,43 +182,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,94 +295,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,31 +334,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,151 +502,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,17 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,16 +562,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,22 +611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,145 +633,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -768,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -826,6 +841,54 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>115570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>191770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="5563870"/>
+          <a:ext cx="8865870" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,41 +1179,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="E8:I34"/>
+  <dimension ref="G9:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="50.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="7.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="79.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="8:9">
-      <c r="H8" s="1" t="s">
+    <row r="9" spans="7:13">
+      <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="7:9">
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="7:9">
+      <c r="M9" s="1" t="str">
+        <f>L9&amp;G9&amp;L9&amp;H9&amp;L9&amp;I9&amp;L9&amp;J9&amp;L9</f>
+        <v>|钻石|gem|商城购买、其他消费|充值、关卡奖励|</v>
+      </c>
+    </row>
+    <row r="10" spans="7:13">
       <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1160,155 +1228,340 @@
       <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="7:9">
+      <c r="J10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" ref="M10:M25" si="0">L10&amp;G10&amp;L10&amp;H10&amp;L10&amp;I10&amp;L10&amp;J10&amp;L10</f>
+        <v>|金币|gold|英雄升级、技能升级等|怪物掉落、关卡奖励、摇钱树点金|</v>
+      </c>
+    </row>
+    <row r="11" spans="7:13">
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="7:9">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|宝物|relic|购买神器、神器升级|关卡奖励、|</v>
+      </c>
+    </row>
+    <row r="12" spans="7:13">
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|木材|wood|英雄装备升级|关卡奖励、商城购买、宝箱掉落|</v>
+      </c>
+    </row>
+    <row r="13" spans="7:13">
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|皮革|leather|英雄装备升级|关卡奖励、商城购买、宝箱掉落|</v>
+      </c>
+    </row>
+    <row r="14" spans="7:13">
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="7:9">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|石材|stone|英雄装备升级|关卡奖励、商城购买、宝箱掉落|</v>
+      </c>
+    </row>
+    <row r="15" spans="7:13">
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="7:9">
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|铜|bronze|英雄装备升级|关卡奖励、商城购买、宝箱掉落|</v>
+      </c>
+    </row>
+    <row r="16" spans="7:13">
       <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="7:9">
+      <c r="L16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|铁|iron|英雄装备升级|关卡奖励、商城购买、宝箱掉落|</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13">
       <c r="G17" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="7:9">
+        <v>26</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|水晶|crystal|英雄装备升级|关卡奖励、商城购买、宝箱掉落|</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13">
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="7:9">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|符文|rune|英雄装备升级|关卡奖励、商城购买、宝箱掉落|</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13">
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="7:9">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|魔晶|essence|英雄装备升级|关卡奖励、商城购买、宝箱掉落|</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13">
       <c r="G20" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="7:9">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|铁宝箱|iron_chest|开启宝箱获得资源|商城购买、关卡奖励|</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13">
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="23" spans="7:8">
+        <v>36</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|银宝箱|silver_chest|开启宝箱获得资源|商城购买、关卡奖励|</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13">
+      <c r="G22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|金宝箱|golden_chest|开启宝箱获得资源|商城购买、关卡奖励|</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13">
       <c r="G23" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="7:8">
+        <v>40</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|铁钥匙|iron_key|开启宝箱|商城购买、关卡奖励|</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13">
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="7:8">
+        <v>43</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|银钥匙|silver_key|开启宝箱|商城购买、关卡奖励|</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13">
       <c r="G25" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="7:8">
-      <c r="G26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="7:8">
-      <c r="G27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="7:8">
-      <c r="G28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9">
-      <c r="I34" s="3"/>
+      <c r="L25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>|金钥匙|golden_key|开启宝箱|商城购买、关卡奖励|</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9">
+      <c r="I31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I14:I21"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/资源货币/资源货币文档.xlsx
+++ b/doc/资源货币/资源货币文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -181,6 +181,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -189,7 +190,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,33 +302,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,83 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -334,25 +334,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,13 +472,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,139 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +525,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,11 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,41 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,6 +607,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,19 +645,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,112 +666,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -841,54 +841,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>115570</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>191770</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4564380" y="5563870"/>
-          <a:ext cx="8865870" cy="2800350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,7 +1133,7 @@
   <sheetPr/>
   <dimension ref="G9:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -1561,7 +1513,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/资源货币/资源货币文档.xlsx
+++ b/doc/资源货币/资源货币文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>钻石</t>
   </si>
@@ -154,6 +154,27 @@
   </si>
   <si>
     <t>golden_key</t>
+  </si>
+  <si>
+    <t>小药水</t>
+  </si>
+  <si>
+    <t>small_blood</t>
+  </si>
+  <si>
+    <t>商城购买、小精灵</t>
+  </si>
+  <si>
+    <t>中药水</t>
+  </si>
+  <si>
+    <t>middle_blood</t>
+  </si>
+  <si>
+    <t>大药水</t>
+  </si>
+  <si>
+    <t>large_blood</t>
   </si>
 </sst>
 </file>
@@ -161,9 +182,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -182,123 +203,41 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,7 +258,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +355,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,175 +379,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,37 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,16 +580,43 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,18 +638,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1155,7 @@
   <dimension ref="G9:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="J26" sqref="J26:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1504,6 +1525,39 @@
       <c r="M25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>|金钥匙|golden_key|开启宝箱|商城购买、关卡奖励|</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10">
+      <c r="G26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10">
+      <c r="G27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10">
+      <c r="G28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="9:9">
